--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\EDAA-ParallelAlgorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F331697-4B4D-4D04-B8C6-DF7F4546E564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4927FA-6108-4BFF-B5C0-6BE78458182A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26192" yWindow="3233" windowWidth="26301" windowHeight="14305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Folha2" sheetId="2" r:id="rId1"/>
+    <sheet name="Folha1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -241,10 +242,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -526,11 +527,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8772740-1F99-4EA6-AB8F-C7F759E6A7DA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -547,19 +562,19 @@
   <sheetData>
     <row r="1" spans="2:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="G2" s="4" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="2:14" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">

--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\EDAA-ParallelAlgorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4927FA-6108-4BFF-B5C0-6BE78458182A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2C3396-B684-4595-8D25-21D044CB3D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26192" yWindow="3233" windowWidth="26301" windowHeight="14305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1522" yWindow="1522" windowWidth="19562" windowHeight="10256" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha2" sheetId="2" r:id="rId1"/>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
